--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H2">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I2">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J2">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>13.23640490976844</v>
+        <v>31.199907861808</v>
       </c>
       <c r="R2">
-        <v>119.127644187916</v>
+        <v>280.799170756272</v>
       </c>
       <c r="S2">
-        <v>0.007901928746574707</v>
+        <v>0.01201689100894372</v>
       </c>
       <c r="T2">
-        <v>0.007901928746574707</v>
+        <v>0.01201689100894371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H3">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I3">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J3">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>6.81554271096611</v>
+        <v>16.455177680285</v>
       </c>
       <c r="R3">
-        <v>61.33988439869499</v>
+        <v>148.096599122565</v>
       </c>
       <c r="S3">
-        <v>0.004068773450073685</v>
+        <v>0.006337841688271233</v>
       </c>
       <c r="T3">
-        <v>0.004068773450073685</v>
+        <v>0.006337841688271232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.172733</v>
+      </c>
+      <c r="H4">
+        <v>3.518199</v>
+      </c>
+      <c r="I4">
+        <v>0.02094912533655296</v>
+      </c>
+      <c r="J4">
+        <v>0.02094912533655295</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.4857323333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.457197</v>
-      </c>
-      <c r="I4">
-        <v>0.01734267164097215</v>
-      </c>
-      <c r="J4">
-        <v>0.01734267164097216</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.1818670906927777</v>
+        <v>0.237141076307</v>
       </c>
       <c r="R4">
-        <v>1.636803816235</v>
+        <v>2.134269686763</v>
       </c>
       <c r="S4">
-        <v>0.0001085718366730072</v>
+        <v>9.133675908104706E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001085718366730072</v>
+        <v>9.133675908104705E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4857323333333333</v>
+        <v>1.172733</v>
       </c>
       <c r="H5">
-        <v>1.457197</v>
+        <v>3.518199</v>
       </c>
       <c r="I5">
-        <v>0.01734267164097215</v>
+        <v>0.02094912533655296</v>
       </c>
       <c r="J5">
-        <v>0.01734267164097216</v>
+        <v>0.02094912533655295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>8.747598278374666</v>
+        <v>6.498778492611001</v>
       </c>
       <c r="R5">
-        <v>78.72838450537199</v>
+        <v>58.48900643349901</v>
       </c>
       <c r="S5">
-        <v>0.00522218070318804</v>
+        <v>0.002503055880256962</v>
       </c>
       <c r="T5">
-        <v>0.005222180703188041</v>
+        <v>0.002503055880256961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,55 +782,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4857323333333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H6">
-        <v>1.457197</v>
+        <v>163.740898</v>
       </c>
       <c r="I6">
-        <v>0.01734267164097215</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J6">
-        <v>0.01734267164097216</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>0.0690418319492222</v>
+        <v>1452.078444343172</v>
       </c>
       <c r="R6">
-        <v>0.6213764875429999</v>
+        <v>13068.70599908854</v>
       </c>
       <c r="S6">
-        <v>4.12169044627151E-05</v>
+        <v>0.5592794850355451</v>
       </c>
       <c r="T6">
-        <v>4.12169044627151E-05</v>
+        <v>0.5592794850355451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H7">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I7">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J7">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>718.1851465724751</v>
+        <v>765.8422875225145</v>
       </c>
       <c r="R7">
-        <v>6463.666319152276</v>
+        <v>6892.580587702631</v>
       </c>
       <c r="S7">
-        <v>0.4287454103852502</v>
+        <v>0.2949702076031992</v>
       </c>
       <c r="T7">
-        <v>0.4287454103852502</v>
+        <v>0.2949702076031992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H8">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I8">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J8">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>369.7999248446828</v>
+        <v>11.03680968222511</v>
       </c>
       <c r="R8">
-        <v>3328.199323602145</v>
+        <v>99.33128714002601</v>
       </c>
       <c r="S8">
-        <v>0.2207648282544482</v>
+        <v>0.004250914445811707</v>
       </c>
       <c r="T8">
-        <v>0.2207648282544482</v>
+        <v>0.004250914445811707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.35502233333333</v>
+        <v>54.58029933333334</v>
       </c>
       <c r="H9">
-        <v>79.065067</v>
+        <v>163.740898</v>
       </c>
       <c r="I9">
-        <v>0.9409842974233845</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="J9">
-        <v>0.9409842974233846</v>
+        <v>0.974995614211059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>9.867803537009443</v>
+        <v>302.460385635722</v>
       </c>
       <c r="R9">
-        <v>88.81023183308498</v>
+        <v>2722.143470721498</v>
       </c>
       <c r="S9">
-        <v>0.00589092589462123</v>
+        <v>0.1164950071265029</v>
       </c>
       <c r="T9">
-        <v>0.00589092589462123</v>
+        <v>0.1164950071265029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>26.35502233333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H10">
-        <v>79.065067</v>
+        <v>0.681041</v>
       </c>
       <c r="I10">
-        <v>0.9409842974233845</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J10">
-        <v>0.9409842974233846</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.009092</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N10">
-        <v>54.027276</v>
+        <v>79.813328</v>
       </c>
       <c r="O10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q10">
-        <v>474.6300218630547</v>
+        <v>6.039572079383111</v>
       </c>
       <c r="R10">
-        <v>4271.670196767492</v>
+        <v>54.356148714448</v>
       </c>
       <c r="S10">
-        <v>0.283346772731257</v>
+        <v>0.002326188902225836</v>
       </c>
       <c r="T10">
-        <v>0.2833467727312571</v>
+        <v>0.002326188902225836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1092,55 +1092,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>26.35502233333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H11">
-        <v>79.065067</v>
+        <v>0.681041</v>
       </c>
       <c r="I11">
-        <v>0.9409842974233845</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J11">
-        <v>0.9409842974233846</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1421396666666666</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N11">
-        <v>0.4264189999999999</v>
+        <v>42.094435</v>
       </c>
       <c r="O11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q11">
-        <v>3.746094089452555</v>
+        <v>3.185337345203889</v>
       </c>
       <c r="R11">
-        <v>33.71484680507299</v>
+        <v>28.668036106835</v>
       </c>
       <c r="S11">
-        <v>0.00223636015780788</v>
+        <v>0.0012268578443749</v>
       </c>
       <c r="T11">
-        <v>0.00223636015780788</v>
+        <v>0.0012268578443749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H12">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I12">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J12">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.25040933333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N12">
-        <v>81.751228</v>
+        <v>0.606637</v>
       </c>
       <c r="O12">
-        <v>0.455635031912059</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P12">
-        <v>0.4556350319120589</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q12">
-        <v>31.80600559710312</v>
+        <v>0.04590496323522222</v>
       </c>
       <c r="R12">
-        <v>286.254050373928</v>
+        <v>0.413144669117</v>
       </c>
       <c r="S12">
-        <v>0.01898769278023408</v>
+        <v>1.768065926382088E-05</v>
       </c>
       <c r="T12">
-        <v>0.01898769278023408</v>
+        <v>1.768065926382088E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.167175333333333</v>
+        <v>0.2270136666666667</v>
       </c>
       <c r="H13">
-        <v>3.501526</v>
+        <v>0.681041</v>
       </c>
       <c r="I13">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="J13">
-        <v>0.04167303093564335</v>
+        <v>0.0040552604523881</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,214 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.03147833333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N13">
-        <v>42.094435</v>
+        <v>16.624701</v>
       </c>
       <c r="O13">
-        <v>0.2346105337346748</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P13">
-        <v>0.2346105337346747</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q13">
-        <v>16.37719540086778</v>
+        <v>1.258011443749</v>
       </c>
       <c r="R13">
-        <v>147.39475860781</v>
+        <v>11.322102993741</v>
       </c>
       <c r="S13">
-        <v>0.0097769320301529</v>
+        <v>0.0004845330465235426</v>
       </c>
       <c r="T13">
-        <v>0.0097769320301529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>1.167175333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.501526</v>
-      </c>
-      <c r="I14">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="J14">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.123255</v>
-      </c>
-      <c r="O14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P14">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q14">
-        <v>0.4370118430144445</v>
-      </c>
-      <c r="R14">
-        <v>3.93310658713</v>
-      </c>
-      <c r="S14">
-        <v>0.000260889302529643</v>
-      </c>
-      <c r="T14">
-        <v>0.0002608893025296431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>1.167175333333333</v>
-      </c>
-      <c r="H15">
-        <v>3.501526</v>
-      </c>
-      <c r="I15">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="J15">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>18.009092</v>
-      </c>
-      <c r="N15">
-        <v>54.027276</v>
-      </c>
-      <c r="O15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P15">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q15">
-        <v>21.01976795813067</v>
-      </c>
-      <c r="R15">
-        <v>189.177911623176</v>
-      </c>
-      <c r="S15">
-        <v>0.01254847594999935</v>
-      </c>
-      <c r="T15">
-        <v>0.01254847594999936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>1.167175333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.501526</v>
-      </c>
-      <c r="I16">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="J16">
-        <v>0.04167303093564335</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P16">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q16">
-        <v>0.1659019128215555</v>
-      </c>
-      <c r="R16">
-        <v>1.493117215394</v>
-      </c>
-      <c r="S16">
-        <v>9.904087272737522E-05</v>
-      </c>
-      <c r="T16">
-        <v>9.904087272737522E-05</v>
+        <v>0.0004845330465235427</v>
       </c>
     </row>
   </sheetData>
